--- a/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
+++ b/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
+++ b/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00461461</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>IATROREF III: a Multifaceted Program for Improving Quality of Care in Critically Ill Patients</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -550,40 +560,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2012-005361-12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>MEOPA (equimolar mixture of oxygen and protoxide of nitrogen) versus local anesthetic for analgesia during the biopsy of trophoblast. 
  MEOPA (mélange équimolaire d'oxygène et de protoxyde d'azote) versus anesthésie locale pour l'analgésie lors de la biopsie de trophoblaste.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>MELIBIO 
  MELIBIO</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,36 +613,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02539173</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Diagnosis of Diaphragmatic Paralysis After Interscalene Block by Measuring the Inspiratory Diaphragmatic Thickening: Feasibility and Impact Observed</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>BBDDIAPHRAGM</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -646,32 +666,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02060747</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>OPTIPOST</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -690,36 +715,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT02169908</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>LIPIDOXA, a Pilot Study of Analysis of Chronic Neuropathic Pain Markers in Patients Treated With Oxaliplatin-based Regimen</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>LIPIDOXA</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -738,32 +768,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT03304977</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Current Situation of the Patient's Knowledge on Their Anticoagulating and Anti Platelet Treatment in GHPSJ (St Joseph's Hospital)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -782,36 +817,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02573987</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>MEOPA (Equimolar Mix of Oxygen and Nitrogen Monoxide) Versus Local Anesthesia for Analgesia During Chorionic Villus Sampling.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>MELIBIO</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -830,32 +870,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT03307083</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Operating Check List During Consultation for Dental Implant</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -874,36 +919,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT02519725</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>ICU Diaries Impact of an ICU Diary on the Psychological Well-being of the Patients and Their Relatives. Mixed Multicenter Randomized Study With Blind Evaluation</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>ICU-diary</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -922,32 +972,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT03305601</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Information During Maternity</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -966,32 +1021,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT03313973</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Impact of Myotensives Techniques, With and Without Auto-reeducation, on the Vital Capacity Forced by the Patient Affected by a Honeymoon Parkinson's Disease</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1010,36 +1070,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT02767583</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Assessment of the Prevalence of Small Fiber Peripheral Neuropathy Among Non-diabetic Obese Patients</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>NEUROBISITE</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1058,36 +1123,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT02827916</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Exploration of Neuropathic Pain Induced by Oxaliplatin Electrophysiological Approach: Interest Using the SUDOSCAN® Machine</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>CANALOXA</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1106,36 +1176,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT02778828</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Determination of Pharmacokinetic and Therapeutic Adaptation of Linezolid in the Treatment of Multi-Resistant Tuberculosis MDR-TB</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>LINEZOLIDE</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1154,32 +1229,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT03206294</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Presence of a Clinical Pharmacist in a Cardiology Department: What Impact on the Management of Diabetic Patients Within Care Pathways? Example of Inpatient Cardiac Patients at GHPSJ</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1198,36 +1278,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT02778334</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Links Between Depression, Anxiety, Coping and Quality of Life After a Stroke: Depressive and Anxiety Symptoms and Individual Coping Strategies of the Acute Phase in the Fourth Month as a Factor Influencing Mental Health and Quality of Life</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>COPING</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1246,36 +1331,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT02778321</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Prospective Study Evaluating the Interest of Long-term Cardiac Recording in Cerebral Infarction</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>SPIDERFLASH</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1294,32 +1384,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT03069794</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Effect of Spinal Surgery on Stable Force Platform Parameters Estimating the Posture and the Balance of the Patients Reached of Spinal Pathologies</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1338,32 +1433,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT03044340</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Vascular and Neurologic Exploration of Small Nervous Fiber by Sudoscanner</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1382,36 +1482,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT02474797</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Assessment of Diaphragmatic Function by Ultrasonographic Measure of Diaphragmatic Thickening in Severe Sepsis or Septic Shock Patients Hospitalized in ICU: Diaphragmatic Dysfunction Frequency, Prognosis Values and Associated Factors</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>US-Diamonds</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1430,36 +1535,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT04437277</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Screening for Chronic Hepatitis C Virus in Hospitalized Patients at Saint Joseph Hospital in Marseille</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>DeViCHO</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1478,32 +1588,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT03953625</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Interest of the Return to Primary Care of the "Low Back Booklet" of Health Insurance in the Recovery of Common Acute Low Back Pain</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1522,36 +1637,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT03641859</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Evaluation of Pain and Anxiety in Patients With an Invasive Procedure in Emergencies: Randomized Trial</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>URGENCES_RV</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1570,32 +1690,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT03328559</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Kinetics of Circulating Tumoral Cells in Bronchial Primitive Cancer</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1614,36 +1739,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT03903783</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Impact of Cefotaxime and Ceftriaxone on the Emergence and Carrying of Multidrug-Resistant Bacteria and Relationship to Residual Antibiotic Levels in Stool</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>CROCTX</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1662,32 +1792,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT04118361</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Eye-ECG Approach to Emergencies : Diagnostic Performance of the HINTS Test Performed by Emergency Physicians to Distinguish a Central Cause From a Peripheral Cause of Isolated Acute Vestibular Syndrome</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>1</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1706,32 +1841,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT03338738</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Impact of Beta-lactams on the Microbiota and Relative Fecal Abundance of Multidrug Resistant Bacteria Ans Its Importance on Infectious Episodes in Hospitalized Patients</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1750,36 +1890,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT04543760</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Effect of Prone Positioning Combined With High Flow Oxygen Therapy on Oxygenation During Acute Respiratory Failure Due to Sars-covid-2: a Randomized Crossover Trial.</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>DeCOPO</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1798,36 +1943,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT03990142</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Study of Abnormalities of the Vegetative Nervous System in the Occurrence of Intradialytic Arterial Hypotension</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>SUDHEMO</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1846,36 +1996,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT04437719</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Longitudinal Prospective Cohort Study to Describe the Clinical Characteristics of COVID-19, the Acquired Immune Response and the Biological and Clinical Parameters of Patients Followed in Oncology by the Saint-Joseph Hospital Group, Paris, France for a Period of 6 Months During the COVID-19 Pandemic in 2020</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>OBVIONCO</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1894,36 +2049,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT04488484</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Medical and Serological Follow-up of the Staff of the Paris Saint-Joseph Hospital Group</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>PERSO-COVID</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
       <c r="J32" t="b">
         <v>1</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1942,36 +2102,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT05515718</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Effect of the Early Ultrasound-guided Femoral Nerve Block Performed by Emergency Physicians on Pre-operative Opioids Usage in Patients With Proximal Femoral Fractures: a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>FORELEG</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1990,36 +2155,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT04785898</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Diagnostic Performance of the ID Now™ COVID-19 Screening Test Versus Simplexa™ COVID-19 Direct Assay in Off-site Biology in Emergency Rooms for COVID-19 Screenin</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>COVID-IDNow</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
       <c r="J34" t="b">
         <v>1</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2038,36 +2208,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT04313855</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Help With Early Detection of Postoperative Neuropathic Pain Using SMS After Ambulatory Surgery</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>SMS DPpostop</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
       <c r="J35" t="b">
         <v>1</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2086,36 +2261,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT03884855</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Randomised Controlled Trial to Evaluate the Benefit of Traditional Karate in Heart Failure During Cardiac Rehabilitation</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>KAREAD</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2134,36 +2314,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT04848389</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Optimization of the Nursing Time After the Use of Tissue Adhesives During the Chest Port Placement on Patients Treated With Chemotherapy, a Randomized Trial Versus Sutures</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>PAC_COLLE</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2182,36 +2367,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT04805489</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Comparison of Hemodynamic and Respiratory Parameters During Physical Activity Without Mask, With Surgical Mask and General Public</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>PAM</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2230,36 +2420,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT04569266</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Effectiveness of an Exercise Re-training Program on Dyspnea in Patients After Acute Respiratory Distress Syndrome Secondary to Severe COVID-19 Pneumonia in Post-ICU</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>RECOVER</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2278,36 +2473,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT03967704</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Optimization of Follow-up of Patients With Symptomatic Recent Osteoporotic Vertebral Fracture</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>OPTIVERT</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2326,32 +2526,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT04672642</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Evaluation of the SpyGlass DS vs Standard Method for Detection of Residual Pancreatic Calculations After Endoscopic Treatment</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>

--- a/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
+++ b/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>vert</t>

--- a/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
+++ b/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
+++ b/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>vert</t>
@@ -79,16 +79,16 @@
     <t>orange</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT00461461</t>

--- a/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
+++ b/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
@@ -49,24 +49,24 @@
     <t>4</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3: résultats postés ou publiés après les 36 mois</t>
   </si>
   <si>
     <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
     <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
     <t>NCT00461461</t>
   </si>
   <si>
@@ -76,33 +76,33 @@
     <t>NCT02060747</t>
   </si>
   <si>
+    <t>NCT03304977</t>
+  </si>
+  <si>
     <t>NCT02169908</t>
   </si>
   <si>
-    <t>NCT03304977</t>
-  </si>
-  <si>
     <t>NCT02573987</t>
   </si>
   <si>
     <t>NCT03307083</t>
   </si>
   <si>
+    <t>NCT02827916</t>
+  </si>
+  <si>
+    <t>NCT03305601</t>
+  </si>
+  <si>
+    <t>NCT03313973</t>
+  </si>
+  <si>
+    <t>NCT02767583</t>
+  </si>
+  <si>
     <t>NCT02519725</t>
   </si>
   <si>
-    <t>NCT03305601</t>
-  </si>
-  <si>
-    <t>NCT03313973</t>
-  </si>
-  <si>
-    <t>NCT02767583</t>
-  </si>
-  <si>
-    <t>NCT02827916</t>
-  </si>
-  <si>
     <t>NCT02778828</t>
   </si>
   <si>
@@ -112,63 +112,66 @@
     <t>NCT02778334</t>
   </si>
   <si>
+    <t>NCT03069794</t>
+  </si>
+  <si>
     <t>NCT02778321</t>
   </si>
   <si>
-    <t>NCT03069794</t>
-  </si>
-  <si>
     <t>NCT03044340</t>
   </si>
   <si>
     <t>NCT02474797</t>
   </si>
   <si>
+    <t>NCT04118361</t>
+  </si>
+  <si>
+    <t>NCT03641859</t>
+  </si>
+  <si>
+    <t>NCT03903783</t>
+  </si>
+  <si>
     <t>NCT04437277</t>
   </si>
   <si>
+    <t>NCT03328559</t>
+  </si>
+  <si>
+    <t>NCT03338738</t>
+  </si>
+  <si>
     <t>NCT03953625</t>
   </si>
   <si>
-    <t>NCT03641859</t>
-  </si>
-  <si>
-    <t>NCT03328559</t>
-  </si>
-  <si>
-    <t>NCT03903783</t>
-  </si>
-  <si>
-    <t>NCT04118361</t>
-  </si>
-  <si>
-    <t>NCT03338738</t>
-  </si>
-  <si>
     <t>NCT04543760</t>
   </si>
   <si>
     <t>NCT03990142</t>
   </si>
   <si>
+    <t>NCT04488484</t>
+  </si>
+  <si>
+    <t>NCT05515718</t>
+  </si>
+  <si>
+    <t>NCT04785898</t>
+  </si>
+  <si>
+    <t>NCT04313855</t>
+  </si>
+  <si>
     <t>NCT04437719</t>
   </si>
   <si>
-    <t>NCT04488484</t>
-  </si>
-  <si>
-    <t>NCT05515718</t>
-  </si>
-  <si>
-    <t>NCT04785898</t>
-  </si>
-  <si>
-    <t>NCT04313855</t>
-  </si>
-  <si>
     <t>NCT03884855</t>
   </si>
   <si>
+    <t>NCT03967704</t>
+  </si>
+  <si>
     <t>NCT04848389</t>
   </si>
   <si>
@@ -176,9 +179,6 @@
   </si>
   <si>
     <t>NCT04569266</t>
-  </si>
-  <si>
-    <t>NCT03967704</t>
   </si>
   <si>
     <t>NCT04672642</t>
@@ -233,33 +233,33 @@
     <t>Diagnosis of Diaphragmatic Paralysis After Interscalene Block by Measuring the Inspiratory Diaphragmatic Thickening: Feasibility and Impact Observed</t>
   </si>
   <si>
+    <t>Current Situation of the Patient's Knowledge on Their Anticoagulating and Anti Platelet Treatment in GHPSJ (St Joseph's Hospital)</t>
+  </si>
+  <si>
     <t>LIPIDOXA, a Pilot Study of Analysis of Chronic Neuropathic Pain Markers in Patients Treated With Oxaliplatin-based Regimen</t>
   </si>
   <si>
-    <t>Current Situation of the Patient's Knowledge on Their Anticoagulating and Anti Platelet Treatment in GHPSJ (St Joseph's Hospital)</t>
-  </si>
-  <si>
     <t>MEOPA (Equimolar Mix of Oxygen and Nitrogen Monoxide) Versus Local Anesthesia for Analgesia During Chorionic Villus Sampling.</t>
   </si>
   <si>
     <t>Operating Check List During Consultation for Dental Implant</t>
   </si>
   <si>
+    <t>Exploration of Neuropathic Pain Induced by Oxaliplatin Electrophysiological Approach: Interest Using the SUDOSCAN® Machine</t>
+  </si>
+  <si>
+    <t>Information During Maternity</t>
+  </si>
+  <si>
+    <t>Impact of Myotensives Techniques, With and Without Auto-reeducation, on the Vital Capacity Forced by the Patient Affected by a Honeymoon Parkinson's Disease</t>
+  </si>
+  <si>
+    <t>Assessment of the Prevalence of Small Fiber Peripheral Neuropathy Among Non-diabetic Obese Patients</t>
+  </si>
+  <si>
     <t>ICU Diaries Impact of an ICU Diary on the Psychological Well-being of the Patients and Their Relatives. Mixed Multicenter Randomized Study With Blind Evaluation</t>
   </si>
   <si>
-    <t>Information During Maternity</t>
-  </si>
-  <si>
-    <t>Impact of Myotensives Techniques, With and Without Auto-reeducation, on the Vital Capacity Forced by the Patient Affected by a Honeymoon Parkinson's Disease</t>
-  </si>
-  <si>
-    <t>Assessment of the Prevalence of Small Fiber Peripheral Neuropathy Among Non-diabetic Obese Patients</t>
-  </si>
-  <si>
-    <t>Exploration of Neuropathic Pain Induced by Oxaliplatin Electrophysiological Approach: Interest Using the SUDOSCAN® Machine</t>
-  </si>
-  <si>
     <t>Determination of Pharmacokinetic and Therapeutic Adaptation of Linezolid in the Treatment of Multi-Resistant Tuberculosis MDR-TB</t>
   </si>
   <si>
@@ -269,63 +269,66 @@
     <t>Links Between Depression, Anxiety, Coping and Quality of Life After a Stroke: Depressive and Anxiety Symptoms and Individual Coping Strategies of the Acute Phase in the Fourth Month as a Factor Influencing Mental Health and Quality of Life</t>
   </si>
   <si>
+    <t>Effect of Spinal Surgery on Stable Force Platform Parameters Estimating the Posture and the Balance of the Patients Reached of Spinal Pathologies</t>
+  </si>
+  <si>
     <t>Prospective Study Evaluating the Interest of Long-term Cardiac Recording in Cerebral Infarction</t>
   </si>
   <si>
-    <t>Effect of Spinal Surgery on Stable Force Platform Parameters Estimating the Posture and the Balance of the Patients Reached of Spinal Pathologies</t>
-  </si>
-  <si>
     <t>Vascular and Neurologic Exploration of Small Nervous Fiber by Sudoscanner</t>
   </si>
   <si>
     <t>Assessment of Diaphragmatic Function by Ultrasonographic Measure of Diaphragmatic Thickening in Severe Sepsis or Septic Shock Patients Hospitalized in ICU: Diaphragmatic Dysfunction Frequency, Prognosis Values and Associated Factors</t>
   </si>
   <si>
+    <t>Eye-ECG Approach to Emergencies : Diagnostic Performance of the HINTS Test Performed by Emergency Physicians to Distinguish a Central Cause From a Peripheral Cause of Isolated Acute Vestibular Syndrome</t>
+  </si>
+  <si>
+    <t>Evaluation of Pain and Anxiety in Patients With an Invasive Procedure in Emergencies: Randomized Trial</t>
+  </si>
+  <si>
+    <t>Impact of Cefotaxime and Ceftriaxone on the Emergence and Carrying of Multidrug-Resistant Bacteria and Relationship to Residual Antibiotic Levels in Stool</t>
+  </si>
+  <si>
     <t>Screening for Chronic Hepatitis C Virus in Hospitalized Patients at Saint Joseph Hospital in Marseille</t>
   </si>
   <si>
+    <t>Kinetics of Circulating Tumoral Cells in Bronchial Primitive Cancer</t>
+  </si>
+  <si>
+    <t>Impact of Beta-lactams on the Microbiota and Relative Fecal Abundance of Multidrug Resistant Bacteria Ans Its Importance on Infectious Episodes in Hospitalized Patients</t>
+  </si>
+  <si>
     <t>Interest of the Return to Primary Care of the "Low Back Booklet" of Health Insurance in the Recovery of Common Acute Low Back Pain</t>
   </si>
   <si>
-    <t>Evaluation of Pain and Anxiety in Patients With an Invasive Procedure in Emergencies: Randomized Trial</t>
-  </si>
-  <si>
-    <t>Kinetics of Circulating Tumoral Cells in Bronchial Primitive Cancer</t>
-  </si>
-  <si>
-    <t>Impact of Cefotaxime and Ceftriaxone on the Emergence and Carrying of Multidrug-Resistant Bacteria and Relationship to Residual Antibiotic Levels in Stool</t>
-  </si>
-  <si>
-    <t>Eye-ECG Approach to Emergencies : Diagnostic Performance of the HINTS Test Performed by Emergency Physicians to Distinguish a Central Cause From a Peripheral Cause of Isolated Acute Vestibular Syndrome</t>
-  </si>
-  <si>
-    <t>Impact of Beta-lactams on the Microbiota and Relative Fecal Abundance of Multidrug Resistant Bacteria Ans Its Importance on Infectious Episodes in Hospitalized Patients</t>
-  </si>
-  <si>
     <t>Effect of Prone Positioning Combined With High Flow Oxygen Therapy on Oxygenation During Acute Respiratory Failure Due to Sars-covid-2: a Randomized Crossover Trial.</t>
   </si>
   <si>
     <t>Study of Abnormalities of the Vegetative Nervous System in the Occurrence of Intradialytic Arterial Hypotension</t>
   </si>
   <si>
+    <t>Medical and Serological Follow-up of the Staff of the Paris Saint-Joseph Hospital Group</t>
+  </si>
+  <si>
+    <t>Effect of the Early Ultrasound-guided Femoral Nerve Block Performed by Emergency Physicians on Pre-operative Opioids Usage in Patients With Proximal Femoral Fractures: a Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Diagnostic Performance of the ID Now™ COVID-19 Screening Test Versus Simplexa™ COVID-19 Direct Assay in Off-site Biology in Emergency Rooms for COVID-19 Screenin</t>
+  </si>
+  <si>
+    <t>Help With Early Detection of Postoperative Neuropathic Pain Using SMS After Ambulatory Surgery</t>
+  </si>
+  <si>
     <t>Longitudinal Prospective Cohort Study to Describe the Clinical Characteristics of COVID-19, the Acquired Immune Response and the Biological and Clinical Parameters of Patients Followed in Oncology by the Saint-Joseph Hospital Group, Paris, France for a Period of 6 Months During the COVID-19 Pandemic in 2020</t>
   </si>
   <si>
-    <t>Medical and Serological Follow-up of the Staff of the Paris Saint-Joseph Hospital Group</t>
-  </si>
-  <si>
-    <t>Effect of the Early Ultrasound-guided Femoral Nerve Block Performed by Emergency Physicians on Pre-operative Opioids Usage in Patients With Proximal Femoral Fractures: a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Diagnostic Performance of the ID Now™ COVID-19 Screening Test Versus Simplexa™ COVID-19 Direct Assay in Off-site Biology in Emergency Rooms for COVID-19 Screenin</t>
-  </si>
-  <si>
-    <t>Help With Early Detection of Postoperative Neuropathic Pain Using SMS After Ambulatory Surgery</t>
-  </si>
-  <si>
     <t>Randomised Controlled Trial to Evaluate the Benefit of Traditional Karate in Heart Failure During Cardiac Rehabilitation</t>
   </si>
   <si>
+    <t>Optimization of Follow-up of Patients With Symptomatic Recent Osteoporotic Vertebral Fracture</t>
+  </si>
+  <si>
     <t>Optimization of the Nursing Time After the Use of Tissue Adhesives During the Chest Port Placement on Patients Treated With Chemotherapy, a Randomized Trial Versus Sutures</t>
   </si>
   <si>
@@ -333,9 +336,6 @@
   </si>
   <si>
     <t>Effectiveness of an Exercise Re-training Program on Dyspnea in Patients After Acute Respiratory Distress Syndrome Secondary to Severe COVID-19 Pneumonia in Post-ICU</t>
-  </si>
-  <si>
-    <t>Optimization of Follow-up of Patients With Symptomatic Recent Osteoporotic Vertebral Fracture</t>
   </si>
   <si>
     <t>Evaluation of the SpyGlass DS vs Standard Method for Detection of Residual Pancreatic Calculations After Endoscopic Treatment</t>
@@ -357,15 +357,15 @@
     <t>MELIBIO</t>
   </si>
   <si>
+    <t>CANALOXA</t>
+  </si>
+  <si>
+    <t>NEUROBISITE</t>
+  </si>
+  <si>
     <t>ICU-diary</t>
   </si>
   <si>
-    <t>NEUROBISITE</t>
-  </si>
-  <si>
-    <t>CANALOXA</t>
-  </si>
-  <si>
     <t>LINEZOLIDE</t>
   </si>
   <si>
@@ -378,39 +378,42 @@
     <t>US-Diamonds</t>
   </si>
   <si>
+    <t>URGENCES_RV</t>
+  </si>
+  <si>
+    <t>CROCTX</t>
+  </si>
+  <si>
     <t>DeViCHO</t>
   </si>
   <si>
-    <t>URGENCES_RV</t>
-  </si>
-  <si>
-    <t>CROCTX</t>
-  </si>
-  <si>
     <t>DeCOPO</t>
   </si>
   <si>
     <t>SUDHEMO</t>
   </si>
   <si>
+    <t>PERSO-COVID</t>
+  </si>
+  <si>
+    <t>FORELEG</t>
+  </si>
+  <si>
+    <t>COVID-IDNow</t>
+  </si>
+  <si>
+    <t>SMS DPpostop</t>
+  </si>
+  <si>
     <t>OBVIONCO</t>
   </si>
   <si>
-    <t>PERSO-COVID</t>
-  </si>
-  <si>
-    <t>FORELEG</t>
-  </si>
-  <si>
-    <t>COVID-IDNow</t>
-  </si>
-  <si>
-    <t>SMS DPpostop</t>
-  </si>
-  <si>
     <t>KAREAD</t>
   </si>
   <si>
+    <t>OPTIVERT</t>
+  </si>
+  <si>
     <t>PAC_COLLE</t>
   </si>
   <si>
@@ -418,9 +421,6 @@
   </si>
   <si>
     <t>RECOVER</t>
-  </si>
-  <si>
-    <t>OPTIVERT</t>
   </si>
   <si>
     <t>PROCEDURE</t>
@@ -930,11 +930,8 @@
       <c r="G6" t="s">
         <v>72</v>
       </c>
-      <c r="H6" t="s">
-        <v>111</v>
-      </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -953,8 +950,11 @@
       <c r="G7" t="s">
         <v>73</v>
       </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1020,7 +1020,7 @@
         <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1065,10 +1065,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1106,7 +1106,7 @@
         <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1191,11 +1191,8 @@
       <c r="G18" t="s">
         <v>84</v>
       </c>
-      <c r="H18" t="s">
-        <v>118</v>
-      </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1214,8 +1211,11 @@
       <c r="G19" t="s">
         <v>85</v>
       </c>
+      <c r="H19" t="s">
+        <v>118</v>
+      </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1263,10 +1263,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1277,19 +1277,16 @@
       <c r="G22" t="s">
         <v>88</v>
       </c>
-      <c r="H22" t="s">
-        <v>120</v>
-      </c>
       <c r="I22" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -1300,16 +1297,19 @@
       <c r="G23" t="s">
         <v>89</v>
       </c>
+      <c r="H23" t="s">
+        <v>120</v>
+      </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1324,7 +1324,7 @@
         <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1343,6 +1343,9 @@
       <c r="G25" t="s">
         <v>91</v>
       </c>
+      <c r="H25" t="s">
+        <v>122</v>
+      </c>
       <c r="I25" t="s">
         <v>140</v>
       </c>
@@ -1363,19 +1366,16 @@
       <c r="G26" t="s">
         <v>92</v>
       </c>
-      <c r="H26" t="s">
-        <v>122</v>
-      </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -1407,7 +1407,7 @@
         <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1435,10 +1435,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -1522,15 +1522,15 @@
         <v>127</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>49</v>
@@ -1568,7 +1568,7 @@
         <v>129</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1596,10 +1596,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
@@ -1637,15 +1637,15 @@
         <v>132</v>
       </c>
       <c r="I38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
         <v>54</v>
@@ -1683,7 +1683,7 @@
         <v>134</v>
       </c>
       <c r="I40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:9">

--- a/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
+++ b/publipostage2/0219xsk19/liste_essais_cliniques_identifies_0219xsk19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
   <si>
     <t>statut</t>
   </si>
@@ -49,22 +49,22 @@
     <t>4</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT00461461</t>
@@ -73,19 +73,28 @@
     <t>NCT02539173</t>
   </si>
   <si>
+    <t>NCT03307083</t>
+  </si>
+  <si>
+    <t>NCT03304977</t>
+  </si>
+  <si>
+    <t>NCT02573987</t>
+  </si>
+  <si>
+    <t>NCT02169908</t>
+  </si>
+  <si>
     <t>NCT02060747</t>
   </si>
   <si>
-    <t>NCT03304977</t>
-  </si>
-  <si>
-    <t>NCT02169908</t>
-  </si>
-  <si>
-    <t>NCT02573987</t>
-  </si>
-  <si>
-    <t>NCT03307083</t>
+    <t>NCT02519725</t>
+  </si>
+  <si>
+    <t>NCT02767583</t>
+  </si>
+  <si>
+    <t>NCT03313973</t>
   </si>
   <si>
     <t>NCT02827916</t>
@@ -94,88 +103,79 @@
     <t>NCT03305601</t>
   </si>
   <si>
-    <t>NCT03313973</t>
-  </si>
-  <si>
-    <t>NCT02767583</t>
-  </si>
-  <si>
-    <t>NCT02519725</t>
+    <t>NCT03206294</t>
   </si>
   <si>
     <t>NCT02778828</t>
   </si>
   <si>
-    <t>NCT03206294</t>
+    <t>NCT03044340</t>
+  </si>
+  <si>
+    <t>NCT03069794</t>
   </si>
   <si>
     <t>NCT02778334</t>
   </si>
   <si>
-    <t>NCT03069794</t>
-  </si>
-  <si>
     <t>NCT02778321</t>
   </si>
   <si>
-    <t>NCT03044340</t>
-  </si>
-  <si>
     <t>NCT02474797</t>
   </si>
   <si>
+    <t>NCT03328559</t>
+  </si>
+  <si>
+    <t>NCT03953625</t>
+  </si>
+  <si>
+    <t>NCT03641859</t>
+  </si>
+  <si>
+    <t>NCT04543760</t>
+  </si>
+  <si>
+    <t>NCT03990142</t>
+  </si>
+  <si>
+    <t>NCT03338738</t>
+  </si>
+  <si>
     <t>NCT04118361</t>
   </si>
   <si>
-    <t>NCT03641859</t>
+    <t>NCT04437277</t>
   </si>
   <si>
     <t>NCT03903783</t>
   </si>
   <si>
-    <t>NCT04437277</t>
-  </si>
-  <si>
-    <t>NCT03328559</t>
-  </si>
-  <si>
-    <t>NCT03338738</t>
-  </si>
-  <si>
-    <t>NCT03953625</t>
-  </si>
-  <si>
-    <t>NCT04543760</t>
-  </si>
-  <si>
-    <t>NCT03990142</t>
+    <t>NCT04313855</t>
   </si>
   <si>
     <t>NCT04488484</t>
   </si>
   <si>
+    <t>NCT04785898</t>
+  </si>
+  <si>
+    <t>NCT04437719</t>
+  </si>
+  <si>
     <t>NCT05515718</t>
   </si>
   <si>
-    <t>NCT04785898</t>
-  </si>
-  <si>
-    <t>NCT04313855</t>
-  </si>
-  <si>
-    <t>NCT04437719</t>
-  </si>
-  <si>
     <t>NCT03884855</t>
   </si>
   <si>
     <t>NCT03967704</t>
   </si>
   <si>
+    <t>NCT04805489</t>
+  </si>
+  <si>
     <t>NCT04848389</t>
-  </si>
-  <si>
-    <t>NCT04805489</t>
   </si>
   <si>
     <t>NCT04569266</t>
@@ -233,16 +233,25 @@
     <t>Diagnosis of Diaphragmatic Paralysis After Interscalene Block by Measuring the Inspiratory Diaphragmatic Thickening: Feasibility and Impact Observed</t>
   </si>
   <si>
+    <t>Operating Check List During Consultation for Dental Implant</t>
+  </si>
+  <si>
     <t>Current Situation of the Patient's Knowledge on Their Anticoagulating and Anti Platelet Treatment in GHPSJ (St Joseph's Hospital)</t>
   </si>
   <si>
+    <t>MEOPA (Equimolar Mix of Oxygen and Nitrogen Monoxide) Versus Local Anesthesia for Analgesia During Chorionic Villus Sampling.</t>
+  </si>
+  <si>
     <t>LIPIDOXA, a Pilot Study of Analysis of Chronic Neuropathic Pain Markers in Patients Treated With Oxaliplatin-based Regimen</t>
   </si>
   <si>
-    <t>MEOPA (Equimolar Mix of Oxygen and Nitrogen Monoxide) Versus Local Anesthesia for Analgesia During Chorionic Villus Sampling.</t>
-  </si>
-  <si>
-    <t>Operating Check List During Consultation for Dental Implant</t>
+    <t>ICU Diaries Impact of an ICU Diary on the Psychological Well-being of the Patients and Their Relatives. Mixed Multicenter Randomized Study With Blind Evaluation</t>
+  </si>
+  <si>
+    <t>Assessment of the Prevalence of Small Fiber Peripheral Neuropathy Among Non-diabetic Obese Patients</t>
+  </si>
+  <si>
+    <t>Impact of Myotensives Techniques, With and Without Auto-reeducation, on the Vital Capacity Forced by the Patient Affected by a Honeymoon Parkinson's Disease</t>
   </si>
   <si>
     <t>Exploration of Neuropathic Pain Induced by Oxaliplatin Electrophysiological Approach: Interest Using the SUDOSCAN® Machine</t>
@@ -251,88 +260,79 @@
     <t>Information During Maternity</t>
   </si>
   <si>
-    <t>Impact of Myotensives Techniques, With and Without Auto-reeducation, on the Vital Capacity Forced by the Patient Affected by a Honeymoon Parkinson's Disease</t>
-  </si>
-  <si>
-    <t>Assessment of the Prevalence of Small Fiber Peripheral Neuropathy Among Non-diabetic Obese Patients</t>
-  </si>
-  <si>
-    <t>ICU Diaries Impact of an ICU Diary on the Psychological Well-being of the Patients and Their Relatives. Mixed Multicenter Randomized Study With Blind Evaluation</t>
+    <t>Presence of a Clinical Pharmacist in a Cardiology Department: What Impact on the Management of Diabetic Patients Within Care Pathways? Example of Inpatient Cardiac Patients at GHPSJ</t>
   </si>
   <si>
     <t>Determination of Pharmacokinetic and Therapeutic Adaptation of Linezolid in the Treatment of Multi-Resistant Tuberculosis MDR-TB</t>
   </si>
   <si>
-    <t>Presence of a Clinical Pharmacist in a Cardiology Department: What Impact on the Management of Diabetic Patients Within Care Pathways? Example of Inpatient Cardiac Patients at GHPSJ</t>
+    <t>Vascular and Neurologic Exploration of Small Nervous Fiber by Sudoscanner</t>
+  </si>
+  <si>
+    <t>Effect of Spinal Surgery on Stable Force Platform Parameters Estimating the Posture and the Balance of the Patients Reached of Spinal Pathologies</t>
   </si>
   <si>
     <t>Links Between Depression, Anxiety, Coping and Quality of Life After a Stroke: Depressive and Anxiety Symptoms and Individual Coping Strategies of the Acute Phase in the Fourth Month as a Factor Influencing Mental Health and Quality of Life</t>
   </si>
   <si>
-    <t>Effect of Spinal Surgery on Stable Force Platform Parameters Estimating the Posture and the Balance of the Patients Reached of Spinal Pathologies</t>
-  </si>
-  <si>
     <t>Prospective Study Evaluating the Interest of Long-term Cardiac Recording in Cerebral Infarction</t>
   </si>
   <si>
-    <t>Vascular and Neurologic Exploration of Small Nervous Fiber by Sudoscanner</t>
-  </si>
-  <si>
     <t>Assessment of Diaphragmatic Function by Ultrasonographic Measure of Diaphragmatic Thickening in Severe Sepsis or Septic Shock Patients Hospitalized in ICU: Diaphragmatic Dysfunction Frequency, Prognosis Values and Associated Factors</t>
   </si>
   <si>
+    <t>Kinetics of Circulating Tumoral Cells in Bronchial Primitive Cancer</t>
+  </si>
+  <si>
+    <t>Interest of the Return to Primary Care of the "Low Back Booklet" of Health Insurance in the Recovery of Common Acute Low Back Pain</t>
+  </si>
+  <si>
+    <t>Evaluation of Pain and Anxiety in Patients With an Invasive Procedure in Emergencies: Randomized Trial</t>
+  </si>
+  <si>
+    <t>Effect of Prone Positioning Combined With High Flow Oxygen Therapy on Oxygenation During Acute Respiratory Failure Due to Sars-covid-2: a Randomized Crossover Trial.</t>
+  </si>
+  <si>
+    <t>Study of Abnormalities of the Vegetative Nervous System in the Occurrence of Intradialytic Arterial Hypotension</t>
+  </si>
+  <si>
+    <t>Impact of Beta-lactams on the Microbiota and Relative Fecal Abundance of Multidrug Resistant Bacteria Ans Its Importance on Infectious Episodes in Hospitalized Patients</t>
+  </si>
+  <si>
     <t>Eye-ECG Approach to Emergencies : Diagnostic Performance of the HINTS Test Performed by Emergency Physicians to Distinguish a Central Cause From a Peripheral Cause of Isolated Acute Vestibular Syndrome</t>
   </si>
   <si>
-    <t>Evaluation of Pain and Anxiety in Patients With an Invasive Procedure in Emergencies: Randomized Trial</t>
+    <t>Screening for Chronic Hepatitis C Virus in Hospitalized Patients at Saint Joseph Hospital in Marseille</t>
   </si>
   <si>
     <t>Impact of Cefotaxime and Ceftriaxone on the Emergence and Carrying of Multidrug-Resistant Bacteria and Relationship to Residual Antibiotic Levels in Stool</t>
   </si>
   <si>
-    <t>Screening for Chronic Hepatitis C Virus in Hospitalized Patients at Saint Joseph Hospital in Marseille</t>
-  </si>
-  <si>
-    <t>Kinetics of Circulating Tumoral Cells in Bronchial Primitive Cancer</t>
-  </si>
-  <si>
-    <t>Impact of Beta-lactams on the Microbiota and Relative Fecal Abundance of Multidrug Resistant Bacteria Ans Its Importance on Infectious Episodes in Hospitalized Patients</t>
-  </si>
-  <si>
-    <t>Interest of the Return to Primary Care of the "Low Back Booklet" of Health Insurance in the Recovery of Common Acute Low Back Pain</t>
-  </si>
-  <si>
-    <t>Effect of Prone Positioning Combined With High Flow Oxygen Therapy on Oxygenation During Acute Respiratory Failure Due to Sars-covid-2: a Randomized Crossover Trial.</t>
-  </si>
-  <si>
-    <t>Study of Abnormalities of the Vegetative Nervous System in the Occurrence of Intradialytic Arterial Hypotension</t>
+    <t>Help With Early Detection of Postoperative Neuropathic Pain Using SMS After Ambulatory Surgery</t>
   </si>
   <si>
     <t>Medical and Serological Follow-up of the Staff of the Paris Saint-Joseph Hospital Group</t>
   </si>
   <si>
+    <t>Diagnostic Performance of the ID Now™ COVID-19 Screening Test Versus Simplexa™ COVID-19 Direct Assay in Off-site Biology in Emergency Rooms for COVID-19 Screenin</t>
+  </si>
+  <si>
+    <t>Longitudinal Prospective Cohort Study to Describe the Clinical Characteristics of COVID-19, the Acquired Immune Response and the Biological and Clinical Parameters of Patients Followed in Oncology by the Saint-Joseph Hospital Group, Paris, France for a Period of 6 Months During the COVID-19 Pandemic in 2020</t>
+  </si>
+  <si>
     <t>Effect of the Early Ultrasound-guided Femoral Nerve Block Performed by Emergency Physicians on Pre-operative Opioids Usage in Patients With Proximal Femoral Fractures: a Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Diagnostic Performance of the ID Now™ COVID-19 Screening Test Versus Simplexa™ COVID-19 Direct Assay in Off-site Biology in Emergency Rooms for COVID-19 Screenin</t>
-  </si>
-  <si>
-    <t>Help With Early Detection of Postoperative Neuropathic Pain Using SMS After Ambulatory Surgery</t>
-  </si>
-  <si>
-    <t>Longitudinal Prospective Cohort Study to Describe the Clinical Characteristics of COVID-19, the Acquired Immune Response and the Biological and Clinical Parameters of Patients Followed in Oncology by the Saint-Joseph Hospital Group, Paris, France for a Period of 6 Months During the COVID-19 Pandemic in 2020</t>
-  </si>
-  <si>
     <t>Randomised Controlled Trial to Evaluate the Benefit of Traditional Karate in Heart Failure During Cardiac Rehabilitation</t>
   </si>
   <si>
     <t>Optimization of Follow-up of Patients With Symptomatic Recent Osteoporotic Vertebral Fracture</t>
   </si>
   <si>
+    <t>Comparison of Hemodynamic and Respiratory Parameters During Physical Activity Without Mask, With Surgical Mask and General Public</t>
+  </si>
+  <si>
     <t>Optimization of the Nursing Time After the Use of Tissue Adhesives During the Chest Port Placement on Patients Treated With Chemotherapy, a Randomized Trial Versus Sutures</t>
-  </si>
-  <si>
-    <t>Comparison of Hemodynamic and Respiratory Parameters During Physical Activity Without Mask, With Surgical Mask and General Public</t>
   </si>
   <si>
     <t>Effectiveness of an Exercise Re-training Program on Dyspnea in Patients After Acute Respiratory Distress Syndrome Secondary to Severe COVID-19 Pneumonia in Post-ICU</t>
@@ -348,24 +348,24 @@
     <t>BBDDIAPHRAGM</t>
   </si>
   <si>
+    <t>MELIBIO</t>
+  </si>
+  <si>
+    <t>LIPIDOXA</t>
+  </si>
+  <si>
     <t>OPTIPOST</t>
   </si>
   <si>
-    <t>LIPIDOXA</t>
-  </si>
-  <si>
-    <t>MELIBIO</t>
+    <t>ICU-diary</t>
+  </si>
+  <si>
+    <t>NEUROBISITE</t>
   </si>
   <si>
     <t>CANALOXA</t>
   </si>
   <si>
-    <t>NEUROBISITE</t>
-  </si>
-  <si>
-    <t>ICU-diary</t>
-  </si>
-  <si>
     <t>LINEZOLIDE</t>
   </si>
   <si>
@@ -381,61 +381,64 @@
     <t>URGENCES_RV</t>
   </si>
   <si>
+    <t>DeCOPO</t>
+  </si>
+  <si>
+    <t>SUDHEMO</t>
+  </si>
+  <si>
+    <t>DeViCHO</t>
+  </si>
+  <si>
     <t>CROCTX</t>
   </si>
   <si>
-    <t>DeViCHO</t>
-  </si>
-  <si>
-    <t>DeCOPO</t>
-  </si>
-  <si>
-    <t>SUDHEMO</t>
+    <t>SMS DPpostop</t>
   </si>
   <si>
     <t>PERSO-COVID</t>
   </si>
   <si>
+    <t>COVID-IDNow</t>
+  </si>
+  <si>
+    <t>OBVIONCO</t>
+  </si>
+  <si>
     <t>FORELEG</t>
   </si>
   <si>
-    <t>COVID-IDNow</t>
-  </si>
-  <si>
-    <t>SMS DPpostop</t>
-  </si>
-  <si>
-    <t>OBVIONCO</t>
-  </si>
-  <si>
     <t>KAREAD</t>
   </si>
   <si>
     <t>OPTIVERT</t>
   </si>
   <si>
+    <t>PAM</t>
+  </si>
+  <si>
     <t>PAC_COLLE</t>
   </si>
   <si>
-    <t>PAM</t>
-  </si>
-  <si>
     <t>RECOVER</t>
   </si>
   <si>
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
-    <t>DRUG</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
@@ -870,6 +873,9 @@
       <c r="H3" t="s">
         <v>108</v>
       </c>
+      <c r="I3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -891,7 +897,7 @@
         <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -907,8 +913,8 @@
       <c r="F5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" t="s">
-        <v>110</v>
+      <c r="G5" t="s">
+        <v>72</v>
       </c>
       <c r="I5" t="s">
         <v>137</v>
@@ -928,10 +934,10 @@
         <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -948,10 +954,10 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
         <v>138</v>
@@ -971,10 +977,10 @@
         <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
         <v>139</v>
@@ -993,11 +999,11 @@
       <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="G9" t="s">
-        <v>75</v>
+      <c r="H9" t="s">
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1020,15 +1026,15 @@
         <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -1039,8 +1045,11 @@
       <c r="G11" t="s">
         <v>77</v>
       </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1080,18 +1089,18 @@
         <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1102,11 +1111,8 @@
       <c r="G14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" t="s">
-        <v>115</v>
-      </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1125,11 +1131,8 @@
       <c r="G15" t="s">
         <v>81</v>
       </c>
-      <c r="H15" t="s">
-        <v>116</v>
-      </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1148,8 +1151,11 @@
       <c r="G16" t="s">
         <v>82</v>
       </c>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1168,11 +1174,8 @@
       <c r="G17" t="s">
         <v>83</v>
       </c>
-      <c r="H17" t="s">
-        <v>117</v>
-      </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1192,7 +1195,7 @@
         <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1212,10 +1215,10 @@
         <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1234,8 +1237,11 @@
       <c r="G20" t="s">
         <v>86</v>
       </c>
+      <c r="H20" t="s">
+        <v>118</v>
+      </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1258,15 +1264,15 @@
         <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1278,15 +1284,15 @@
         <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -1297,19 +1303,16 @@
       <c r="G23" t="s">
         <v>89</v>
       </c>
-      <c r="H23" t="s">
-        <v>120</v>
-      </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1321,10 +1324,10 @@
         <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1344,18 +1347,18 @@
         <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -1366,16 +1369,19 @@
       <c r="G26" t="s">
         <v>92</v>
       </c>
+      <c r="H26" t="s">
+        <v>122</v>
+      </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -1387,15 +1393,15 @@
         <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -1407,7 +1413,7 @@
         <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1430,15 +1436,15 @@
         <v>123</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -1453,15 +1459,15 @@
         <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -1476,15 +1482,15 @@
         <v>125</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
@@ -1499,15 +1505,15 @@
         <v>126</v>
       </c>
       <c r="I32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -1522,15 +1528,15 @@
         <v>127</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
@@ -1545,15 +1551,15 @@
         <v>128</v>
       </c>
       <c r="I34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>49</v>
@@ -1568,7 +1574,7 @@
         <v>129</v>
       </c>
       <c r="I35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1591,15 +1597,15 @@
         <v>130</v>
       </c>
       <c r="I36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
@@ -1619,10 +1625,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
@@ -1637,15 +1643,15 @@
         <v>132</v>
       </c>
       <c r="I38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -1660,15 +1666,15 @@
         <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>54</v>
@@ -1683,7 +1689,7 @@
         <v>134</v>
       </c>
       <c r="I40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1703,7 +1709,7 @@
         <v>107</v>
       </c>
       <c r="I41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
